--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H2">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I2">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J2">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N2">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q2">
-        <v>15.940035325856</v>
+        <v>48.92883024171878</v>
       </c>
       <c r="R2">
-        <v>143.460317932704</v>
+        <v>440.359472175469</v>
       </c>
       <c r="S2">
-        <v>0.000394211792268552</v>
+        <v>0.001192278309368779</v>
       </c>
       <c r="T2">
-        <v>0.000394211792268552</v>
+        <v>0.001192278309368779</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H3">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I3">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J3">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P3">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q3">
-        <v>46.540266271752</v>
+        <v>128.4634124785037</v>
       </c>
       <c r="R3">
-        <v>418.862396445768</v>
+        <v>1156.170712306533</v>
       </c>
       <c r="S3">
-        <v>0.001150983759106428</v>
+        <v>0.003130345432109273</v>
       </c>
       <c r="T3">
-        <v>0.001150983759106428</v>
+        <v>0.003130345432109272</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H4">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I4">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J4">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N4">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O4">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P4">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q4">
-        <v>4.20633956612</v>
+        <v>9.220553017282448</v>
       </c>
       <c r="R4">
-        <v>37.85705609508</v>
+        <v>82.98497715554201</v>
       </c>
       <c r="S4">
-        <v>0.0001040266615068648</v>
+        <v>0.0002246827751364719</v>
       </c>
       <c r="T4">
-        <v>0.0001040266615068648</v>
+        <v>0.0002246827751364719</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H5">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I5">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J5">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N5">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q5">
-        <v>1.285920691096</v>
+        <v>3.470927143855112</v>
       </c>
       <c r="R5">
-        <v>11.573286219864</v>
+        <v>31.23834429469601</v>
       </c>
       <c r="S5">
-        <v>3.180200608024353E-05</v>
+        <v>8.457817459713718E-05</v>
       </c>
       <c r="T5">
-        <v>3.180200608024353E-05</v>
+        <v>8.457817459713717E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>10741.933594</v>
       </c>
       <c r="I6">
-        <v>0.9370403925578976</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J6">
-        <v>0.9370403925578976</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N6">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q6">
-        <v>8885.331210962</v>
+        <v>9880.947326121888</v>
       </c>
       <c r="R6">
-        <v>79967.98089865799</v>
+        <v>88928.525935097</v>
       </c>
       <c r="S6">
-        <v>0.2197424453565277</v>
+        <v>0.2407750014613208</v>
       </c>
       <c r="T6">
-        <v>0.2197424453565277</v>
+        <v>0.2407750014613208</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>10741.933594</v>
       </c>
       <c r="I7">
-        <v>0.9370403925578976</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J7">
-        <v>0.9370403925578976</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P7">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q7">
         <v>25942.58243581861</v>
@@ -883,10 +883,10 @@
         <v>233483.2419223675</v>
       </c>
       <c r="S7">
-        <v>0.6415840184186993</v>
+        <v>0.6321585489461611</v>
       </c>
       <c r="T7">
-        <v>0.6415840184186992</v>
+        <v>0.632158548946161</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>10741.933594</v>
       </c>
       <c r="I8">
-        <v>0.9370403925578976</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J8">
-        <v>0.9370403925578976</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N8">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O8">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P8">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q8">
-        <v>2344.707490712121</v>
+        <v>1862.047349821982</v>
       </c>
       <c r="R8">
-        <v>21102.36741640909</v>
+        <v>16758.42614839784</v>
       </c>
       <c r="S8">
-        <v>0.05798678129400494</v>
+        <v>0.0453736305413947</v>
       </c>
       <c r="T8">
-        <v>0.05798678129400493</v>
+        <v>0.04537363054139468</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>10741.933594</v>
       </c>
       <c r="I9">
-        <v>0.9370403925578976</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J9">
-        <v>0.9370403925578976</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N9">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q9">
-        <v>716.8008738903801</v>
+        <v>700.9374250683965</v>
       </c>
       <c r="R9">
-        <v>6451.207865013421</v>
+        <v>6308.436825615569</v>
       </c>
       <c r="S9">
-        <v>0.01772714748866572</v>
+        <v>0.01708016488449154</v>
       </c>
       <c r="T9">
-        <v>0.01772714748866572</v>
+        <v>0.01708016488449154</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>233.243637</v>
+        <v>227.2177583333333</v>
       </c>
       <c r="H10">
-        <v>699.7309110000001</v>
+        <v>681.653275</v>
       </c>
       <c r="I10">
-        <v>0.06103892951773311</v>
+        <v>0.0593570833501536</v>
       </c>
       <c r="J10">
-        <v>0.06103892951773311</v>
+        <v>0.05935708335015359</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N10">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q10">
-        <v>578.7915972833722</v>
+        <v>627.0174774414527</v>
       </c>
       <c r="R10">
-        <v>5209.124375550349</v>
+        <v>5643.157296973074</v>
       </c>
       <c r="S10">
-        <v>0.01431405064359876</v>
+        <v>0.0152789129487742</v>
       </c>
       <c r="T10">
-        <v>0.01431405064359876</v>
+        <v>0.0152789129487742</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>233.243637</v>
+        <v>227.2177583333333</v>
       </c>
       <c r="H11">
-        <v>699.7309110000001</v>
+        <v>681.653275</v>
       </c>
       <c r="I11">
-        <v>0.06103892951773311</v>
+        <v>0.0593570833501536</v>
       </c>
       <c r="J11">
-        <v>0.06103892951773311</v>
+        <v>0.05935708335015359</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.735681</v>
       </c>
       <c r="O11">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P11">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q11">
-        <v>1689.903096370599</v>
+        <v>1646.244237556142</v>
       </c>
       <c r="R11">
-        <v>15209.12786733539</v>
+        <v>14816.19813800527</v>
       </c>
       <c r="S11">
-        <v>0.04179286399069852</v>
+        <v>0.04011502598089869</v>
       </c>
       <c r="T11">
-        <v>0.04179286399069852</v>
+        <v>0.04011502598089869</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>233.243637</v>
+        <v>227.2177583333333</v>
       </c>
       <c r="H12">
-        <v>699.7309110000001</v>
+        <v>681.653275</v>
       </c>
       <c r="I12">
-        <v>0.06103892951773311</v>
+        <v>0.0593570833501536</v>
       </c>
       <c r="J12">
-        <v>0.06103892951773311</v>
+        <v>0.05935708335015359</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N12">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O12">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P12">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q12">
-        <v>152.734542077315</v>
+        <v>118.1603538230945</v>
       </c>
       <c r="R12">
-        <v>1374.610878695835</v>
+        <v>1063.44318440785</v>
       </c>
       <c r="S12">
-        <v>0.003777266257117382</v>
+        <v>0.002879284589364565</v>
       </c>
       <c r="T12">
-        <v>0.003777266257117382</v>
+        <v>0.002879284589364564</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>233.243637</v>
+        <v>227.2177583333333</v>
       </c>
       <c r="H13">
-        <v>699.7309110000001</v>
+        <v>681.653275</v>
       </c>
       <c r="I13">
-        <v>0.06103892951773311</v>
+        <v>0.0593570833501536</v>
       </c>
       <c r="J13">
-        <v>0.06103892951773311</v>
+        <v>0.05935708335015359</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N13">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q13">
-        <v>46.69249945587701</v>
+        <v>44.47954245731111</v>
       </c>
       <c r="R13">
-        <v>420.232495102893</v>
+        <v>400.3158821158</v>
       </c>
       <c r="S13">
-        <v>0.001154748626318443</v>
+        <v>0.001083859831116142</v>
       </c>
       <c r="T13">
-        <v>0.001154748626318443</v>
+        <v>0.001083859831116142</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9157713333333333</v>
+        <v>2.387458333333333</v>
       </c>
       <c r="H14">
-        <v>2.747314</v>
+        <v>7.162374999999999</v>
       </c>
       <c r="I14">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666267</v>
       </c>
       <c r="J14">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666266</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N14">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q14">
-        <v>2.272476795439111</v>
+        <v>6.588297114819443</v>
       </c>
       <c r="R14">
-        <v>20.452291158952</v>
+        <v>59.29467403337499</v>
       </c>
       <c r="S14">
-        <v>5.620044950374915E-05</v>
+        <v>0.0001605410083762549</v>
       </c>
       <c r="T14">
-        <v>5.620044950374915E-05</v>
+        <v>0.0001605410083762549</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9157713333333333</v>
+        <v>2.387458333333333</v>
       </c>
       <c r="H15">
-        <v>2.747314</v>
+        <v>7.162374999999999</v>
       </c>
       <c r="I15">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666267</v>
       </c>
       <c r="J15">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666266</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>21.735681</v>
       </c>
       <c r="O15">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P15">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q15">
-        <v>6.634971190092666</v>
+        <v>17.29767757804166</v>
       </c>
       <c r="R15">
-        <v>59.71474071083399</v>
+        <v>155.679098202375</v>
       </c>
       <c r="S15">
-        <v>0.0001640889641100075</v>
+        <v>0.0004215029396138958</v>
       </c>
       <c r="T15">
-        <v>0.0001640889641100075</v>
+        <v>0.0004215029396138957</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9157713333333333</v>
+        <v>2.387458333333333</v>
       </c>
       <c r="H16">
-        <v>2.747314</v>
+        <v>7.162374999999999</v>
       </c>
       <c r="I16">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666267</v>
       </c>
       <c r="J16">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666266</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N16">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O16">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P16">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q16">
-        <v>0.5996730159211112</v>
+        <v>1.241553140361111</v>
       </c>
       <c r="R16">
-        <v>5.397057143290001</v>
+        <v>11.17397826325</v>
       </c>
       <c r="S16">
-        <v>1.483046740792931E-05</v>
+        <v>3.025367399687184E-05</v>
       </c>
       <c r="T16">
-        <v>1.483046740792931E-05</v>
+        <v>3.025367399687183E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9157713333333333</v>
+        <v>2.387458333333333</v>
       </c>
       <c r="H17">
-        <v>2.747314</v>
+        <v>7.162374999999999</v>
       </c>
       <c r="I17">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666267</v>
       </c>
       <c r="J17">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666266</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N17">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q17">
-        <v>0.1833261264202222</v>
+        <v>0.4673624767777777</v>
       </c>
       <c r="R17">
-        <v>1.649935137782</v>
+        <v>4.206262291</v>
       </c>
       <c r="S17">
-        <v>4.53382438547927E-06</v>
+        <v>1.138850327960425E-05</v>
       </c>
       <c r="T17">
-        <v>4.533824385479271E-06</v>
+        <v>1.138850327960425E-05</v>
       </c>
     </row>
   </sheetData>
